--- a/geometry_source/targets/rge_runs.xlsx
+++ b/geometry_source/targets/rge_runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/projects/gemc/clas12Tags/geometry_source/targets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749D3144-F695-D24A-BD13-FE21983B1E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFEA3A8-79E7-0644-AF03-0E37D011AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1920" windowWidth="41120" windowHeight="24420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <t>2cm-lD2</t>
   </si>
   <si>
-    <t>LD2-C-sol-Inb
-LD2-C-sol-Inb</t>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -76,10 +72,6 @@
   </si>
   <si>
     <t>Cu</t>
-  </si>
-  <si>
-    <t>LD2-Cu-sol-Inb
-LD2-Cu-sol-Inb</t>
   </si>
   <si>
     <t>Empty-Pb-sol-Inb</t>
@@ -144,6 +136,14 @@
   </si>
   <si>
     <t>LD2-Sn</t>
+  </si>
+  <si>
+    <t>LD2-C-sol-Inb
+LD2-C-liq-Inb</t>
+  </si>
+  <si>
+    <t>LD2-Cu-sol-Inb
+LD2-Cu-liq-Inb</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -639,13 +639,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>9</v>
@@ -691,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -708,16 +708,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -731,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -754,13 +754,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -777,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>9</v>
@@ -803,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -826,10 +826,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>9</v>
@@ -849,13 +849,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
@@ -892,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>9</v>
@@ -915,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>9</v>
@@ -938,13 +938,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>9</v>
@@ -961,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -984,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>9</v>
@@ -1007,16 +1007,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="9">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>9</v>
